--- a/resData/syncControlDistance_400_20_1_1_k1.xlsx
+++ b/resData/syncControlDistance_400_20_1_1_k1.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW1"/>
+  <dimension ref="A1:CW10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,2751 @@
       </c>
       <c r="CW1" t="n">
         <v>0.009476862512214374</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.1725861261319294</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.07174937741582671</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.08535896564953502</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1005018094260064</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.04360734212683932</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.14676752100537</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1755526794104733</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1851202130087781</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3944118749282294</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.05134303264096159</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1251001509767309</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.06541234440753171</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.385107101662629</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.2081667323142579</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.2653401586907193</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.3815332733114085</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.137472265793023</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0291979958225953</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.04160845039820051</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.2695938082058163</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.8654668445630156</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.4046947332483761</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.8090154620020958</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.9995252535861786</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.9997690826004468</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.9729139837258748</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.9978246932822303</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.9999424277973122</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.997256795542855</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.9804173145571105</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.9990880369143876</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.993238643296978</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.9954870627458109</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.9996602802718703</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.9993600078762575</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.9991585196265563</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.9998181945995697</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.9999999999999989</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.9999997219963072</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.9999997636954631</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.9999997520747496</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.9998966329995163</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.9937634685919443</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.9999999999982231</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.9997239383786075</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.9999999999999943</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.999999684464337</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.9999971625974902</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.999999999999991</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.9995417645162266</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.9999999999996078</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.9999122785129154</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.9999986232162896</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.9999328864837166</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.9999551119365081</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.9999997969458723</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.9999997531711793</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.9999971136230813</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.9999999984441723</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.9999995011189717</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.999999997048464</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.6063228945124497</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.4339414389952001</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.1285789594084054</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.3806364254424329</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.04290751550978071</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.1966626298710192</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.08271951963541238</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.2191241294597792</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.0446252376962885</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.1959424597668656</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.1318882098139896</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.1596306237856089</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.07432570488465078</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.1060992337420473</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.09940549953968646</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.2336597426544874</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.1314242697773095</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.1560952557964493</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.05230651063382545</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.09805705680806483</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.1404569054795659</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.09037971209698666</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.1660318982304405</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.1791498946857568</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.1038164589702715</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.1771722039401146</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.05243667469952722</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.1288327097101177</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.06719163966304496</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.05443034537083383</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.1728746516026605</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.05719237527025976</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.03933719828032067</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.05939778780293339</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1705276808322009</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05310831651438805</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1317600927384211</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2023492271350754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.09172561970008329</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3592576642266739</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1599406313420236</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.427073269390249</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1206681393662286</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4480134392804135</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.03560453089402676</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.4128665420003897</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.03623352624268482</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.4412288992002958</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.288830702520724</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1002395256168801</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1956845702175831</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2494479977379596</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.9683053941677369</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.8142522616768386</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1109461495012667</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.9031808833706758</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.9992787986624108</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.6894893379720008</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2932966990138076</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.9999920712581951</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.9974444313156506</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.8846202389510032</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.9999999999999913</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.9998452179539525</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.9996861601353452</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.9978793949461726</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.8667371374846059</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.9999999999999918</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.000000000000003</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.9984097585246616</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.9992144909809173</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.9999549002869941</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.9999998612722214</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.000000000000006</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.9999999999999983</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.9999756999577408</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.9999938399760879</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.9999999999999857</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.9999363968944135</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.9999993074972382</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.9999999316032947</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.9999998584076947</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.9993110824383222</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.9994496793284872</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.9998767434589233</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.9999999641998515</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.9999732124438873</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.9999999993875248</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.9999999893038701</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.9999999992309883</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.9999999999872315</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.9998131557875969</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.9999999231805061</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.9999999390633038</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.9999988635304181</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.983801076349582</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.1966662755057879</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.355504349096075</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.4289089653262561</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.08423303105667582</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.04331029730933767</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.3128712964959071</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.1573503328654757</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.07790431562992652</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.1559059887007018</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.1158730197806315</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03076684772099869</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.06808975163223216</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.197659408322982</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.02783757428644831</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.07918555961487783</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.1530305833228223</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.03827586230468994</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.1093743785735152</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.1370201320331241</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.05412015235558034</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.116905762731046</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.04951599248726982</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.1099307182091715</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.2040696754696247</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.04525327164989566</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.1380903640198884</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.05849184671744794</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.1177051372364935</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0.0789071518091074</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.04505621617340234</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0.05071389696462237</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.03837400922746406</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.1082492878507181</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05007199234100792</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1023748786730833</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05375819798435252</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1262105677044446</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02620420326208278</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.09166167740906134</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.08874411302406168</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1695222617979175</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02847619275242733</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.005559412806026603</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1088516132546963</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2134149691641647</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3530128321833044</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.03124204770255009</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.143991468683736</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.1926992380073158</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.5416011461979221</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.179462916686226</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2947063190607763</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2699557130082804</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.9993700852461929</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.9802266151841869</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.07411675897859643</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.6406412386255931</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.6218851092279751</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.999213034167162</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.9905867731222397</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.9945983445609687</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.9750866125156</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.9768324502097343</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.9999902003915095</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.9808096876905575</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.9868888915452674</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.9999602614323417</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.9986840152248277</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.9999999978442196</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.9994673768405888</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.9999999999999802</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.9999768854165203</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.9752655224717525</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.9992927995707439</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.9995358082535154</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.9574468007721335</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.9999999999892166</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.9584195318322335</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.9999999956336721</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.9997428273800252</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.999999999999466</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.9497440051374521</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.9999999914076168</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.9999999990575006</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.9994517762359533</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.9999999992745195</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.9999891430262374</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.9999889404895613</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.9999998569243186</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.9999997604912165</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.9999999999999802</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.9999969889279455</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.9999908223438366</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.9999999662328696</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.9999997136726962</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.60353071147397</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0.9999994074901879</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.2580528977941901</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.2646532984743801</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.1134409965305643</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.1897450323798858</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.05410352211443425</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.07362908896581627</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.05392713321249022</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.2920740856257561</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0.2236207646780254</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.2309170219018545</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.2246533165111973</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.09913546884770115</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.04327111838666051</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.3618740057383961</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0.1470711963927939</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.1234397551194978</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.1089712643711191</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.02942006755827719</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.06912673657710298</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.141113795367827</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.05368637922497503</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.02850398585465447</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.02325060936567324</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0.05505180452808948</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.05156352710760698</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0.07111171580811938</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0.1377114864082094</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0.0542251181948977</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.2966026804886235</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0.07925154098391669</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0.08441578125494167</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.1306648129940212</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1473942386369789</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05010414847664482</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08483303922842005</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1959066229478066</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0602665946441443</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.07811518377835866</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.08660380303404831</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1547231606242568</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.08658847919995682</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.03324404008822682</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.07691778737353086</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1104689956112217</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.199904746566954</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.3262785588990448</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4503470895160128</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.1910565584866421</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2735228205367927</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.7344447073211158</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.2079544442021885</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1688434805385116</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1545950309820869</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.9968316026681228</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.238595979120952</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.3039506219617678</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.000000000000003</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.8638641908866919</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.9531634528427786</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.000000000000003</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.9990618721288393</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.9999044637975552</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.9999282741454601</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.9999999999999923</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.9987100474593941</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.9999999999998876</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.9977038971357546</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.9983844466773202</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.9999999999999938</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.000000000000003</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.9951789693395368</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.9820872089594761</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.000000000000008</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.9996472250257387</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.9999900782170986</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.9982819458769028</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.9999997758172363</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.9989128861734912</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.9994782319828681</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.999999993241691</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.9987234846433664</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.9999543910959177</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.999999269709081</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.9999883547850424</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.9999999999999946</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.9999898042618658</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.9999213252507326</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.9999722613932679</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.9999912699621757</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.9999696382065124</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.9999950676614611</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.9999999990931809</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.9999943885179416</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.9999996759374702</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.9999996987996392</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.999999999989347</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0.9999999999452988</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0.9993280377789248</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0.3193344445191353</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.2720821152155239</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0.3879429836151103</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0.2088383416260879</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0.1466368958031544</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.06486008273510327</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.1018310896939836</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.1523937584872308</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.2345140371329775</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0.05965778325426394</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.1211914023511829</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.08204151652797004</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.01104140993315576</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.06133257968078738</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.2185834016828013</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0.057727254972105</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.0387732345247028</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.05407712893298516</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.09522574071367945</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.06115610378102247</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.02620290699340357</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.131797082996899</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.1215005535071311</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.1012157534101215</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0.06471890275065888</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0.08631016030456166</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0.1381511700347363</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0.2868745742590819</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0.0945608352718213</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0.1301722516083813</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0.1447576125852157</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0.08744138113502921</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.3074692020591144</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.06054268877126435</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1792795005344207</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0684740383761232</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3509781765895673</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1152228541473351</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04538792444968655</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.08796580472748521</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1485710926447738</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1255330770887793</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.06020707371386694</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1570065680010803</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2108785996030128</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.08744910499117896</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.04019191047659443</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.3743959302827426</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2179548008839541</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1210710524957314</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9874342211048639</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.4765613785189238</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.5665736741077259</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.000000000000006</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.04964672241002208</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.9998724630966359</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.9915507232466685</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.9219954542556362</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.9851758477326455</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.9536425917624192</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.9999999999999974</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.8573563895427134</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.9983039104949565</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.000000000000006</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.9999994759355403</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.9999996404956003</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.9957860929010333</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.9675256922355863</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.9443941339649109</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.9999999942085185</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.9336662310609701</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.9999944656667198</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.999999999999998</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.9999981673280887</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.9999639684775099</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.9999941335331002</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.999872094991846</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.9997952833673629</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.9999997689102361</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.999990815827435</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.9993722000246844</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.9999907403536228</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.9999995418043974</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.9999878794718156</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.9999921631177452</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.9999999998002325</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.9999462056474365</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.9999999999998134</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.9999999999999472</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.9997557360615368</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.9999999970251352</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.9999999999982692</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.9999983083874266</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.999999991452694</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.9999999988001882</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0.9999998760597966</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.4999380815183466</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0.9994967199209748</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.3705985564772341</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0.1251596348369027</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0.1911342414257977</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.05154678761273455</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.1226640081619721</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.3674323595004044</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.02801445577669582</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0.1908189892049575</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.08614688692869063</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.1511246819847051</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.01406094483740563</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.1884128422733196</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.1233077396776435</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.08827282375899954</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.1123374790438902</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.1147973839434682</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.01611977925794906</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.08033127807038568</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.1533041765596281</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.1660352175372946</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.06548661783046821</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.04382427090054812</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.08202224186752458</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0.06340419041693156</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.1770808071432656</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.1177876017776922</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0.08740903146127171</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0.1083588023084102</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0.09952970010838519</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0.08189493992338823</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0.03549472109211171</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.1635415684731894</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.08743716260677696</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.07671131469934667</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05056626989026481</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3375371730792682</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1254888160013927</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2547849146285815</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5107277166051083</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06152093262744598</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.07306510428964125</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4448990905082948</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.4215364771968352</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1430249279152553</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2100913296616634</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.2856304673334633</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.1806261361521063</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3549520877637717</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.09416917725145015</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.1194764633099698</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.5398828120910347</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.2764152692267551</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.8648225654396958</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.4433336950616071</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.8655317240038982</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.9965354405226549</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.9979154123297843</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.8636206693254893</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.9996159776567424</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.9900581467947492</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.6745128290830816</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.9487764058356574</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.9999998897148379</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.9999972207379223</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.9983664565338093</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.9998308398398364</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.9983723890286744</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.9999923216932298</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.9978724786537273</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.9993072271621203</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.9999999985992807</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.9999999559037367</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.9999999988928766</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.9996173877750709</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.9999983961404324</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.9999991117105794</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.9999987578339016</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.9999704297229628</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.9999999886001484</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.9999999993863693</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.9999998957286341</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.9999999970379341</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.9803919430619156</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.9996062558073611</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.9999895066334231</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.9999889414720829</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.9999999982661193</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.9999999961234651</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.9999996525614643</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.9999999991611916</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.9999945836009591</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.9999981032301357</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.9999969978672324</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.3616462637247497</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.1743011731581394</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.1374676537446059</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0.1548313933970445</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.1177156468216863</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.1547472037231266</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.0361895158858281</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.1981319520139099</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.07892761464526654</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.1287666330745595</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.07408034698004638</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.09504263307178562</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.09499802078550589</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.02011096571402918</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0.06482807091350515</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.1698847111961181</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.04716240843712433</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.04554224523237489</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.1082614314133892</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.138901057772919</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.06726078777968668</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.04000925899899257</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.1128366646248186</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.09692756511326416</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.08563046964268586</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.1969972182798289</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.2933074354996268</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0.1106132057687719</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0.05875499551553522</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.1016122054923447</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0.0549457890179087</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.07703525795973527</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.1293817521835679</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.136181458926456</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1382412762775609</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6403711315042017</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09900960326409557</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01478136715578803</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1194210575376072</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.083884290448048</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1725569778395226</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.4408867660299281</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2745066412379579</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.04986163109377578</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.02736103106916064</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.05415412685480796</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.09630773485514965</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.04608049179973533</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.3054438460610155</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.9612987438245209</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.2519864653334836</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.2961106955361091</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.9999641716879963</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1894142847734803</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.1334056512756322</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.8837296458925941</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.7011414072797733</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.9501898006219115</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.9985831743849017</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.9931243130696863</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.9702057530853869</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.9999003869424367</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.9831973514307853</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.999957473705654</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.9999896051751616</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.9989264947838383</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.9327863100035135</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.9847360894181212</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.9946294432071459</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.9374690327133156</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.9994626831623701</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.9931868194528455</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.9990359479555992</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.9998499193869003</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.9959896972804188</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.9479664982682279</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.9977212685257452</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>1.000000000000005</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.9999999691866946</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.9999999999999983</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.9999999997844427</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.9999999999999968</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>1.000000000000009</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.9994683839558151</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.9999999250808971</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.9999954238065871</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.9999999999985392</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.9999999999780033</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.9999999010295666</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.9997893055487183</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.9999999949627952</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.9999999999950263</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.9998791586514918</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.9999996923629376</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.999999937903624</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.9999999988679117</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.9999998838961386</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.9999999151998297</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0.9999980278011743</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.9999999850191118</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.1916527485228403</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.1983913648542434</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0.2707771460469119</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.2348127609143227</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.2246950024282123</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.06571762347406251</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.1353595793598957</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0.1173994075901227</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.172028540965443</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.1142540184338271</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.08608568559878332</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.09773337617323753</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.0732588490650599</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0.08335272719133614</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.1001425684258213</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.15533612405125</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.06727945039559879</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.08339886241452385</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.03119682798748551</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.113472436499902</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.04236219399870857</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.08730230098186736</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0.1008597066129931</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0.01887867283267244</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0.1657700067036556</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0.050630588237132</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0.02944215778599509</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0.09475865061048397</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0.1038919945811573</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0.1667928707977395</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0.03986608531912891</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.1843037954285866</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3041698620777536</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07744989021072675</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1026646653634333</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1813629717551596</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.10793476871125</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2359089015489536</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.08718877936718357</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.05341085225977623</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.05161125645574589</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2674629868763577</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.08256633383924833</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3959553252407498</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.07849803640865535</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.2603656419926875</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.03288651331702022</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.154458843222095</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.5610041468451048</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.5501741216877657</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.7174267602552756</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.07420803782195753</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.9803968001077534</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.9028876117488487</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.996495833982005</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.9974438151097366</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.9545162996959771</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.9790182494587324</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.9999998985817719</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.9999999999999954</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.000000000000007</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.9997345188994884</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.9997618418571824</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.9992737281847878</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.9997555814471677</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.9957716731952806</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.9999999571300872</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.9996636897731485</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.9989153318870487</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9745811869124027</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.9991517886002643</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.9979066745440247</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.9999943266108714</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.9999984401333605</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.9996331716021025</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.9999999999830148</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.9999346567401356</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.9999382277297816</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.9999350218520915</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.9999996517211628</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.9987978544110006</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.999972030885883</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.999999998811424</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.9999999808964227</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.9999992111272049</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.9999125574065379</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.9999999999975089</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.9999464939282692</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.9997734569166424</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.9999999998009337</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.9999956062171245</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.9999076165203217</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.9999999505743884</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.9999999066014873</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.99999961440678</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.9999803618548591</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.9999998816982771</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.9998118598278295</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.2274926991314873</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.4122480964540874</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.3071896968080426</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.2390694948742884</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.06934371670723993</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.07874817272730289</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.1578444449098036</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.1233230977026709</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.1528061997657209</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.1637849883962668</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.126273887101516</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.07397327661662124</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.2748804304765436</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.07233915951187624</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.1410713465777809</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.1728581894836311</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.1926481709772206</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.06750579184931663</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.1441068528710644</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.09084845401816587</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.04235803905670268</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.0749027763115265</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.08613168007346145</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.2539699211714617</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0.1751452123997205</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.1442483549501498</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.1253616821635079</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0.121360418280634</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0.06422121450244506</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.0777583513680087</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0.09792212641016926</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.1904709633060542</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.2565414146477913</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1141926511645748</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2858082079821108</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1854222949889887</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.04538395740156671</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1021091939932682</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1514363096345922</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.02753679683986578</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2028558003025918</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1837432524608219</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2860768816739147</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.1402461112704495</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1678337568274494</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2106194368107945</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.3341233294410163</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.09077531583406975</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.8064092909180702</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4821811148497873</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.05472755788614431</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.3741323231792801</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.1452899364797739</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.5929258799527721</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.9351317042810759</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.1357009911861363</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.863101004214164</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.9949006739609895</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.9885463310631087</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.989039477665193</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.9996093630682473</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.000000000000003</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.9825495511644544</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.00000000000001</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.996817098551537</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.9999772442237913</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.9992514538974322</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.9714055538308743</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.9980923833548946</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.997849521740002</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.9984991984932159</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.9906588111152438</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.9994768668071182</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.9977281318455955</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.9999999999999933</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.999910574581122</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.9999999999999956</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.9999986676481879</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.9999999999999838</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.9999227979114303</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.9999940086045765</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.9999990971565599</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.9999999168005932</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.9999980819427943</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.9999999941690659</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.9999998308710871</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.9994498212903576</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.9761236803843494</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.9999998872819371</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.9999902454437182</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.9999999684977041</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.9999999999934457</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.9999980510120402</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.9825625619212215</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.3686784184292621</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0.3646466147514275</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0.9991190589609344</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0.09249276734874425</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0.2514085023631762</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.2375620625684669</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.2022440457331383</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.02245607733689509</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.1186230207873772</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0.2985543998546614</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.2180961023471014</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.03549664659645241</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.1657638687576113</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.3185851123236371</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.08606855952588693</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0.146764001309572</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.03715669771780627</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.1496003238424015</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.1384787996610161</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.203695819393696</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.0607584438249365</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.09126520276385131</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.2493565492271766</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.06481506265922145</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.1254141093002496</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0.02450657589706831</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.09248879922835071</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.04656707588574032</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0.1686146050090944</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0.1682280956082184</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.04889592975623426</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0.07968976900988466</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0.1172904117341864</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +3435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW1"/>
+  <dimension ref="A1:CW10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,6 +3746,2751 @@
       </c>
       <c r="CW1" t="n">
         <v>4.569478343278025</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.187121224166023</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.374397989941124</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.544958174132267</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.340676432878591</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.51795144315006</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.856812902872978</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.383431392903383</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.519933832661773</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.331026805017785</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.121354744309274</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.433889185782025</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.35622927087452</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.134029422244899</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.7594922167724611</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.017820926947749</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.687276717555992</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.313223515856762</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.719791362546342</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.514643505238481</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.469361187185544</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.75899398361528</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.111781871431614</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.553007990097845</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2185216837033923</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.511404995678655</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.112929456341944</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1.413225806817662</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.261876360679021</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.4302851873222807</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.854858162222877</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1.993219339641508</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1.66956492779809</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1.835849894535157</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>2.501088117960411</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1.843601209367241</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.997679308469527</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.312788740263295</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.600686614509987</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2.41638614297525</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.998949018951277</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>2.225333897832886</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2.670623900681676</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>2.702638069649345</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2.676627680831647</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>2.809337370033383</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.435363896012303</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>2.837666520493608</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>2.695651111191934</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>2.443375834638216</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>2.681739211646802</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2.208192352493985</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>2.422671444486176</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>2.758784451820111</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>3.171852790251921</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>2.959298872166152</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>2.59366130317372</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>3.396786179867545</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>2.581728044490633</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>2.908634803956092</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>3.592034457114312</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>3.435652592898744</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>3.92789549793786</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>3.636455863047388</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>3.907043107804893</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>3.939434655944062</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>4.025380005636935</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>4.006131397462392</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>3.974603176841889</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>4.558397474733745</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>4.567915911713471</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>4.54897425428901</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>4.569455064714057</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>4.568504069953952</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>4.566860860503429</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>4.560231975435483</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>4.570662927553119</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>4.572121089369581</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>4.565275343961066</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>4.569092228194434</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>4.571880280530087</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>4.562562644651476</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>4.55921418150385</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>4.569203503968883</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>4.572327887451427</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>4.572182867267738</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>4.564076321036954</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>4.557144849231353</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>4.575375005917174</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>4.578913251911811</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>4.567597837857182</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>4.573351678363782</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>4.570488631824736</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>4.573523489980612</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>4.575636342860669</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>4.561931921798803</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>4.566922352341174</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>4.574022122894428</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>4.578192047737109</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>4.566225382725803</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>4.560153202014493</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>4.574380490549507</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.128876312442993</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.056771202425625</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.021048441043355</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.947267556255891</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.778887214727511</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.978409243891493</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.412617653739203</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.945638701582708</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.174896198110062</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.270656311688345</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.894781481855915</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.125908474932989</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.704243318496773</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.763956136718485</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.89174188595672</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.842573326322612</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.591754369623636</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.774808810366774</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.750623620789886</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.507817594592347</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.478208344145719</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.167255705701379</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.349181883660665</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.315094904340724</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.004688333770004</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.7108537360711957</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.231014665345943</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.6168321098640883</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.20405330152464</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.282411333739044</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.566888681998066</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2.170223236803592</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1.405226036233801</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.488983321033515</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2.045917091230672</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.708364671646218</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.90100223620079</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2.031732444910849</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>2.206557594246598</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2.36773631327692</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.94254135328973</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2.416928661910664</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.904575551646725</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2.325670206530024</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2.266599811400896</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.750998324553719</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>2.356008508946026</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>2.757834110489378</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3.005892828483988</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>3.042135342852559</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>3.133370281436117</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>2.95801447382297</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>3.115372932363315</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2.755249165967675</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>2.715477832653462</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>3.090575788854014</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>3.008251553416901</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3.205875834485794</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>3.274196106396333</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>2.797427432984447</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>3.234679482234184</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3.78618864681177</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>3.718514351457065</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3.921908805265314</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>3.825809726274709</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>4.294630528561787</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>4.193703491257312</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>4.177183441007678</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>4.460302104305719</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>4.565541721889919</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>4.549163081140658</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>4.564491425604828</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>4.566045109728689</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>4.569481856147203</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>4.5751124269179</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>4.561789172428519</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>4.556110326125308</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>4.56658004392555</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>4.56607190116183</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>4.567224939078824</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>4.562846974098527</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>4.56720194657527</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>4.568499315029</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>4.569550853369869</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>4.570113534995241</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>4.574999909087675</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>4.565759538225859</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>4.563674432774311</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>4.567553075193849</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>4.571663706249923</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>4.565452482623664</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>4.561271253466478</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>4.564060547857902</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>4.573177382635404</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>4.559214181503852</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>4.565406211556136</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>4.573608260382326</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>4.570199261392322</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>4.568684342951067</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>4.571108336423314</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>4.56577179853573</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.342022801702755</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.487414879076805</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.368902974427124</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.396134360421539</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.294223460515882</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.00905953915359</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.134601787905045</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.766929524749302</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.862189299609179</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.005558862027392</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.291237945804191</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9923267403406519</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.352566316740581</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.679589063457213</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.7047094207829</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.748977956960204</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.048690480879154</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.877258903478629</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.129183801858167</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.908878789101441</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.236708287918983</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.8685936985732539</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.706490620311865</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.326440703065356</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.079965413840971</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.9935071287960573</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.4776843546913</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.8726277491505334</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.639927813261454</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.9772295680083711</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.096307100758513</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.393264265078087</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1.774845727426795</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1.930899016322312</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1.881005470333015</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2.712586547969835</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2.063955592141532</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2.23026149883521</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2.282542769995166</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2.149799239737894</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2.61073239931674</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2.553490086842427</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>2.409523233316717</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>2.692615266404703</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1.91481591715699</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.65870393307923</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>2.515163673843201</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>2.961073461699295</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>2.649098915938041</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>2.900349833780786</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>2.62037613532426</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2.781600726190155</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>3.132411561644769</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>3.076924806834861</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>3.017386157075783</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>3.081004924683584</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>3.021728405023401</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>3.319385535492392</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>3.421117078073797</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>3.469696142728678</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>3.563801506486797</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>3.607059063360501</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>3.940929496506178</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>3.792865641583913</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>4.147962382941278</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>4.137773078591317</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>4.073295766026346</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>4.006258099032577</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>4.565887829235132</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>4.120445576991989</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>4.563042753926272</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>4.557564708724179</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4.56944906773333</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>4.558588765984956</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>4.562809164411288</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>4.563742474001618</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>4.570701693235723</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>4.562949715730431</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>4.568777667207319</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>4.570081988637146</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>4.56972390704247</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>4.569510845631488</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>4.559930344693194</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>4.578409864073045</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>4.567670347949022</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>4.567179220420128</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>4.568789641456782</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>4.568029671599472</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>4.566515995213996</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>4.563159070686083</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>4.564592925180956</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>4.565894092564275</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>4.568533059438239</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>4.563870765010886</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>4.568695361205164</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>4.555619198596411</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>4.56299827732335</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>4.574440740331482</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>4.573552479464894</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>4.574239939230366</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>4.57616872018372</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.383450527302759</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.218856521803703</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.069328156737176</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.965268191444737</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.034105231238685</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.315016467295872</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.176752281061133</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.190589107141589</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.0780251668593</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.789515088101756</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.589569754701655</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.477243819623101</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.723817651619829</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.289600444647501</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.047938246157714</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9983495989203841</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.458375421822782</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.487432157774183</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.240612666711058</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.576911987596974</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.012466410348594</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.912342012646725</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.433811894335496</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.109236734961891</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.082569329662608</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.4518999104512756</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.9532190695131804</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.9607926533720819</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.596343212634972</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.037437257391984</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.472900692963848</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.842741577869711</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1.198537821806342</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.829710569600452</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2.119258862163635</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.929681159253442</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2.502297380628047</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.552924287266525</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.467237761849144</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.780370395821389</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2.124192968538579</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2.340895624198235</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2.234410578512617</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.975133964413734</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2.773157401817387</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.063767690224006</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>3.03200632545115</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>3.023574777208329</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.344138087110482</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>3.347594651366972</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>2.845216302489073</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>3.342759128362981</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>3.360750203680326</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>3.333286488463106</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>3.06204433082565</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>2.510260962669614</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>3.265405145997345</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>3.281803627811418</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>3.028302363372946</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>3.211179809436453</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>3.238929438236236</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>3.667553465278304</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>3.746796250773107</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>3.809876537554432</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>3.983181309644286</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>4.155574107565701</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>3.928653609189461</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>4.028484944996904</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>4.26209448951381</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>4.546128222984785</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>4.563058527105322</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>4.578499389399712</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4.577773430300056</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>4.565161870135474</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>4.560236730360435</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>4.571981780106216</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>4.569348810212978</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>4.571103295437952</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>4.570774203327564</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>4.568890185037545</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>4.559218936428803</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>4.565681987148657</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>4.563847486446917</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>4.561886203140104</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>4.569623363461711</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>4.56998048906102</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>4.568258506189506</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>4.566362227589611</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>4.573547724539946</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>4.567862881256008</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>4.568902159287007</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>4.568213743526174</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>4.57727479738624</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>4.573004328962794</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>4.572260132284535</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>4.569668126125045</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>4.575435541759552</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>4.570706448160675</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>4.567526283760703</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>4.566190415972782</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>4.570394351573118</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.912803943488441</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.809809295465628</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.115793635419387</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.83966544579012</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.246247726188463</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.579881806596702</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.24108303678037</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.180390806841395</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.863557493703502</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.977748732107085</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.103453729221018</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.05340792819133</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.274498368969647</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.144344037115653</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.072439911485167</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.280790601309346</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.242162889705786</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.462681664361209</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.508578314792827</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.233193847006596</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.359061210886497</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.140997297168741</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.642304281113127</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.081972468961373</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.634010108080614</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.904575827730902</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.052525460196664</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.3347427318107602</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.693658766811007</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.7389540892689987</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.143130284838321</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.739007735088324</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.990846757950813</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.613328087728653</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2.004172144892678</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.939595177728937</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.400508231972102</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2.13254074527817</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.951542925101198</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.645357487859708</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>2.385278129309657</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2.459918244337618</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>2.714245129296353</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>2.242287610403729</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>2.319668037518397</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.797189993936578</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>3.098190333725433</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>2.764826035735009</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>2.776377655832716</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>2.859869038294759</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>2.912764621873841</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>3.00603493748492</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>3.041731936110951</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>2.286357205888228</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>2.672180852162719</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2.937210428604626</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>3.298600209006274</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>3.24301319965408</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>3.203755214899958</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>3.095836520499005</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>3.490219027599397</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>3.547815338520431</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>3.964021012901622</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>3.869922625087983</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>4.283236154678674</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>3.956665375270267</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>4.005675633614867</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>4.084174877474148</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>4.561913950568611</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>4.374162094574496</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>4.562848216154301</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>4.563986795710286</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>4.572938082200097</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>4.575508051851395</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>4.559897842339734</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>4.57502167924745</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>4.558001849800251</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>4.575653358095491</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>4.559414982604966</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>4.575212970498663</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>4.568246245879633</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>4.569002702867769</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>4.570500606074196</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>4.567877146030866</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>4.579929803787669</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>4.568068437282078</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>4.575190933990469</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>4.569694917558189</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>4.564060547857905</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>4.566760316922665</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>4.571405882175606</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>4.573546482484168</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>4.57218286726774</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>4.564389926028703</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>4.564937790470389</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>4.56113098820774</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>4.574335441825764</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>4.57032535435045</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>4.569455064714059</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>4.578823726585147</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>4.559391990101407</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.479203800063449</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.15508001110436</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.461891253937616</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.814684155783944</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.209371539158686</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.90402112559342</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.406024869772565</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.646393842319121</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.277096109590836</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.157730028422892</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.097545090245925</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.905456618776194</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.170964437188686</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.209677334756641</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.118875350321936</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.917375166362148</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.664652333924177</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.848018835350831</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.405935138180539</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.671300811789024</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.8716872309221388</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.576742928196724</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.107061077905969</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5603368170861662</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.6881917727202451</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.340882579972696</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.157319613020384</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.674042485697568</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.30457212703037</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.8156361058262096</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.932865668711151</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.267154635665411</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.69221579348652</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.952629090683272</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1.727591543081136</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>2.370984022346788</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.004434270445802</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.522377569050035</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2.573569672108577</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.827877345917234</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>2.173731031036195</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>2.827958969586274</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>2.791865038088403</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>2.858393290303285</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>2.624297723865038</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.930784218117358</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>2.669073220684168</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>2.322785911495589</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>2.402561842878764</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>3.005112399306699</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>2.857275647994489</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>2.863521809643092</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>3.248400247654371</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>3.137716195537784</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>3.038964123202341</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>2.870444440174425</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>3.335505427867381</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>3.25551813831942</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>3.353323594355798</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>2.975568869558895</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>3.753202940896621</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>3.815629496169575</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>3.999570386554742</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>3.906202221327751</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>4.07484498700534</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>4.13304669674297</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>3.967640339514984</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>4.12372181610818</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>4.2345637121842</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>4.569980489061017</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>4.563586149503424</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>4.570914754646708</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>4.568508824878904</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>4.567995927190236</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>4.565038334051152</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>4.570488631824735</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>4.561947694977849</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>4.570817723935125</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>4.574261709390139</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>4.573792332309027</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>4.566150408234401</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>4.567722329936867</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>4.575721113262381</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>4.567917153769248</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>4.576357547035372</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>4.566716796315106</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>4.569382554622214</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>4.571365874437223</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>4.57318488802032</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>4.565766757550367</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>4.579891038105065</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>4.56871713136494</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>4.566245910829803</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>4.567140168677112</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>4.573450979888769</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>4.564948808724489</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>4.573898586810108</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>4.573116846793023</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>4.57825258357949</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>4.55964030432582</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>4.572338905705521</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.330405276537159</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.729410095993364</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.980316293618207</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.310490480919619</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.445149809820995</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.767587714081341</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.022138157151582</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.2129509368012</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.053583347197622</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.757004555465228</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.130447401105112</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.038996544075893</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.968372628910048</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.732846588901495</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.966094578793535</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.503077372418733</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.990895397764656</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.254746192088041</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.612961034874905</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.94278999776291</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.381812280527102</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.9436702015701471</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.48858000222242</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.067880466421392</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.6127759715463625</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.158693604582451</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.832525047732679</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.777691297247813</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.346290568597289</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.20525416324063</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2.144100593578574</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2.059489638772475</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2.226094381029503</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2.090353636309616</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2.538021152188425</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>2.566159631456143</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.223786913990555</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>2.356940291930777</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2.625836435052111</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.51386237609032</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>2.623981788834899</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>2.069649782820474</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>2.819721765794593</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>2.736717961324089</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2.377990491464277</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.390892537239979</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>2.580417433013468</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>2.779305662351113</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>2.39271835582089</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>2.698246705788055</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>2.894521626592016</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>2.759865654506126</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>2.476720149412237</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>2.959993783014112</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>2.989038626348877</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>3.59338940859705</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>3.172845891088033</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>3.173321085530537</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>3.1442094562256</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>3.617382593503718</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>3.720103327671168</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>3.619792347380904</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>3.84372198344671</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>4.119331674671105</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>3.913778749262448</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>4.277477678612032</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>4.121816909432497</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>4.297723657466316</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>4.05687556812735</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>4.201832644278332</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>4.563612940936567</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>4.570774203327566</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>4.572327887451424</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>4.563737719076662</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>4.572669239871682</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>4.570918267515887</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>4.568499315029001</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>4.569180511465325</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>4.561137251536886</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>4.568162717533696</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>4.55767627055904</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>4.568291008542966</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>4.577146506376968</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>4.566692561755774</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>4.560214960200656</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>4.568029671599469</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>4.569455064714058</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>4.565580487572524</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>4.566149166178626</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>4.562405078097508</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>4.566076656086783</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>4.565916818719415</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>4.57199879534104</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>4.567420985254991</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>4.575447516009013</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>4.561858169651184</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>4.565083096714486</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>4.568632360963226</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>4.568180955112298</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>4.574485502994812</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>4.566800324661047</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.82347974588762</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.372438959757612</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.958120243829441</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.856281004860853</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.189754530553758</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.384079771488597</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.133942397598536</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.386792123897821</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.828315771974667</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.085145517230554</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.389302070965079</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.505586623639722</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.952273544789977</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.197787843160227</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.559106394259083</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.9387140116939616</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.205432882361557</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.114596624339663</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.293882636526131</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.52483729573258</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.292429018706996</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.14306831902328</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.026494459112358</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.021823363678439</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.39030607428231</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.67805354277987</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.205866760518199</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.371632509652053</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.4903579391576366</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.322753410620702</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.665804943910893</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.317682151044034</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1.840792511095252</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>2.711357804013895</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2.13122100006602</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.853155870193024</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2.03296478973798</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>2.43135357528322</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>2.374738598258721</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>2.335871547120122</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>2.476411364187064</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2.792201040371568</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2.491286900475209</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>3.055202235444741</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>2.897687934639817</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.071213636810444</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>3.045856357791418</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>3.155081789328159</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>2.666744651692161</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>2.52647342100332</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>2.787732702004035</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>3.259459599391277</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>2.81290740919964</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>2.84376687124221</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>3.063751994834451</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>3.278810237228879</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>3.550529535397571</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>3.275564369508564</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>3.171478277874354</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>3.560464622194049</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>3.314949840760327</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>3.594629529711575</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>3.764846518706784</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>4.046415909684366</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>4.261656386722698</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>4.316033729975985</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>4.172197974931697</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>4.224868589297783</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>4.2085465858084</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>4.562026468398837</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>4.568162717533693</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>4.553763883730265</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>4.567252686507336</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>4.564121083700287</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>4.569852198051745</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>4.56181369304826</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>4.565737768066083</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>4.568794396381734</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>4.558477204150098</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>4.5569560223797</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>4.579165079005403</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>4.582725095159823</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>4.572596729779841</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>4.568732904543985</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>4.572255377359582</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>4.565597502807349</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>4.57409463298627</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>4.564268854343936</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>4.577463624237892</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>4.575793623354223</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>4.569706891807648</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>4.569208258893834</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>4.564748007623375</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>4.570052999152858</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>4.563271588516307</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>4.565714775562527</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>4.56996471588197</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>4.565872056056082</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>4.57727479738624</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>4.572178112342788</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>4.569264039811264</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.235548561814311</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.729390625604109</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.63557504393542</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.050488107965189</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.406782796475524</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.259504071139513</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.751071402681093</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.985893373417744</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.392538134975101</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.882809286709174</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.947244621113835</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.31267741092028</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.182302050578709</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.473057198492736</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.340385717194708</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.25717504769489</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.06671833355642</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.7836169658980982</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.187642788894517</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.483442544475367</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.1946691624261805</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.510922573429386</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4013619516669125</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.108682235315581</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.196311768623018</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.600710868130073</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.176128498568635</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.419649750186507</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2.337097105117176</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.499200751026865</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>2.367745719041797</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.313289614709189</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>2.198901440832841</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>2.165324288882929</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1.911008563210778</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>2.236257486096375</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.966380739203337</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>2.503717241034222</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>2.493369407498593</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.652455985169106</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>2.386162353832467</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>2.738896855837221</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>2.666257773442368</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1.85766658920859</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>2.188368065090068</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.498256207023815</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>2.412993506275358</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>2.100393380629721</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>2.645013031192193</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>2.605111119749728</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>2.707405722623038</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>3.052284034078598</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>3.241787857787354</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>3.256730171126616</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>3.343163198418566</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>2.836090377811834</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>3.11592862414157</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>3.030650568608254</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>3.406955531864805</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>3.597670546316018</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>3.549981408240934</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>3.705561544530251</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>3.35044705141558</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>3.970135583980528</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>3.827727106391773</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>4.084425196163546</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>3.909579128541917</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>4.413907677265657</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>4.567180176415494</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>4.567944901197755</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>4.228548248673693</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>4.573462954138232</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>4.573160653460988</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>4.553450564798932</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>4.55807435989209</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>4.563625201246437</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>4.57622450110115</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>4.56916949321123</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>4.566000347065355</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>4.574984135908631</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>4.568806656691603</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>4.570774203327564</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>4.554568616250912</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>4.567324240603813</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>4.563714440512694</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>4.562344828315534</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>4.570097761816191</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>4.563479895002343</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>4.570045779828351</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>4.566653796073167</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>4.576229256026102</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>4.57072944066423</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>4.572244359105484</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>4.571914024939323</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>4.560196722622051</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>4.56645175291628</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>4.563428869009866</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>4.558134895734474</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>4.569643891565709</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>4.574051112378713</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>4.567555273244991</v>
       </c>
     </row>
   </sheetData>
